--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/123/word_level_predictions_123.xlsx
@@ -577,185 +577,185 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-NonEvent</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Missed_E-Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5442,156 +5442,156 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
+      <c r="A97" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D97" t="n">
+      <c r="D97" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E97" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>1</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K97" t="b">
-        <v>1</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G97" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K97" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
+      <c r="A98" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D98" t="n">
+      <c r="D98" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>1</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K98" t="b">
-        <v>1</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K98" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
+      <c r="A99" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="2" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D99" t="n">
+      <c r="D99" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E99" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F99" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K99" t="b">
-        <v>1</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="G99" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K99" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5650,158 +5650,158 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
+      <c r="A101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>AirSense</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F101" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr">
+      <c r="I101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K101" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K101" t="b">
-        <v>1</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+      <c r="I102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K102" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K102" t="b">
-        <v>1</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>7</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K103" t="b">
-        <v>1</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K103" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -7314,780 +7314,780 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -12878,156 +12878,156 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
+      <c r="A240" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="B240" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+      <c r="C240" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" t="n">
+      <c r="D240" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="E240" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" t="b">
-        <v>1</v>
-      </c>
-      <c r="J240" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K240" t="b">
-        <v>1</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F240" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G240" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J240" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K240" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L240" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
+      <c r="A241" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" t="n">
+      <c r="D241" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" t="b">
-        <v>1</v>
-      </c>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K241" t="b">
-        <v>1</v>
-      </c>
-      <c r="L241" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
+      <c r="A242" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" t="n">
+      <c r="D242" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="F242" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" t="b">
-        <v>1</v>
-      </c>
-      <c r="J242" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K242" t="b">
-        <v>1</v>
-      </c>
-      <c r="L242" t="inlineStr">
+      <c r="G242" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14958,260 +14958,260 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="2" t="n">
+      <c r="A280" t="n">
         <v>17</v>
       </c>
-      <c r="B280" s="2" t="inlineStr">
+      <c r="B280" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" s="2" t="inlineStr">
+      <c r="C280" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" s="2" t="n">
+      <c r="D280" t="n">
         <v>7</v>
       </c>
-      <c r="E280" s="2" t="inlineStr">
+      <c r="E280" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K280" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L280" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" t="b">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="2" t="n">
+      <c r="A281" t="n">
         <v>17</v>
       </c>
-      <c r="B281" s="2" t="inlineStr">
+      <c r="B281" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" s="2" t="inlineStr">
+      <c r="C281" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" s="2" t="n">
+      <c r="D281" t="n">
         <v>8</v>
       </c>
-      <c r="E281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L281" s="2" t="inlineStr">
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" t="b">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="2" t="n">
+      <c r="A282" t="n">
         <v>17</v>
       </c>
-      <c r="B282" s="2" t="inlineStr">
+      <c r="B282" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" s="2" t="inlineStr">
+      <c r="C282" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" s="2" t="n">
+      <c r="D282" t="n">
         <v>9</v>
       </c>
-      <c r="E282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K282" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L282" s="2" t="inlineStr">
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" t="b">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="2" t="n">
+      <c r="A283" t="n">
         <v>17</v>
       </c>
-      <c r="B283" s="2" t="inlineStr">
+      <c r="B283" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" s="2" t="inlineStr">
+      <c r="C283" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" s="2" t="n">
+      <c r="D283" t="n">
         <v>10</v>
       </c>
-      <c r="E283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2" t="inlineStr">
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" t="b">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="2" t="n">
+      <c r="A284" t="n">
         <v>17</v>
       </c>
-      <c r="B284" s="2" t="inlineStr">
+      <c r="B284" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" s="2" t="inlineStr">
+      <c r="C284" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" s="2" t="n">
+      <c r="D284" t="n">
         <v>11</v>
       </c>
-      <c r="E284" s="2" t="inlineStr">
+      <c r="E284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" s="2" t="inlineStr">
+      <c r="F284" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K284" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L284" s="2" t="inlineStr">
+      <c r="G284" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" t="b">
+        <v>1</v>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K284" t="b">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="F289" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G289" s="2" t="b">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L289" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="F298" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G298" s="2" t="b">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="L298" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/123/word_level_predictions_123.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,161 +601,161 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1282,104 +1282,104 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>Restart</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G27" s="2" t="b">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Missed_B-NonEvent</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G31" s="2" t="b">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G63" s="2" t="b">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G81" s="2" t="b">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Missed_E-Event</t>
         </is>
       </c>
     </row>
@@ -5442,156 +5442,156 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" t="n">
         <v>6</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D97" s="2" t="n">
+      <c r="D97" t="n">
         <v>6</v>
       </c>
-      <c r="E97" s="2" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K97" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K97" t="b">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" t="n">
         <v>6</v>
       </c>
-      <c r="B98" s="2" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" t="n">
         <v>7</v>
       </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G98" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K98" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L98" s="2" t="inlineStr">
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K98" t="b">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" t="n">
         <v>6</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>No GPS signal Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" t="n">
         <v>8</v>
       </c>
-      <c r="E99" s="2" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F99" s="2" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G99" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L99" s="2" t="inlineStr">
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K99" t="b">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5650,158 +5650,158 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" t="n">
         <v>7</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>AirSense</t>
         </is>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F101" s="2" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G101" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="inlineStr">
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K101" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L101" s="2" t="inlineStr">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K101" t="b">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" t="n">
         <v>7</v>
       </c>
-      <c r="B102" s="2" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>communication</t>
         </is>
       </c>
-      <c r="D102" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G102" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="inlineStr">
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K102" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L102" s="2" t="inlineStr">
+      <c r="I102" t="b">
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K102" t="b">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" t="n">
         <v>7</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" t="n">
         <v>2</v>
       </c>
-      <c r="E103" s="2" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G103" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="inlineStr">
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K103" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L103" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I103" t="b">
+        <v>1</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K103" t="b">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7314,780 +7314,780 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="140">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" s="2" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" s="2" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" s="2" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" s="2" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" s="2" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8585,7 +8585,7 @@
       </c>
       <c r="F157" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G157" s="2" t="b">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12878,156 +12878,156 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="n">
+      <c r="A240" t="n">
         <v>15</v>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B240" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C240" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D240" s="2" t="n">
+      <c r="D240" t="n">
         <v>7</v>
       </c>
-      <c r="E240" s="2" t="inlineStr">
+      <c r="E240" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F240" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G240" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K240" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L240" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G240" t="b">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K240" t="b">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="n">
+      <c r="A241" t="n">
         <v>15</v>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B241" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C241" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D241" s="2" t="n">
+      <c r="D241" t="n">
         <v>8</v>
       </c>
-      <c r="E241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F241" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G241" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K241" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L241" s="2" t="inlineStr">
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G241" t="b">
+        <v>1</v>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K241" t="b">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="n">
+      <c r="A242" t="n">
         <v>15</v>
       </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="B242" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
+      <c r="C242" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D242" s="2" t="n">
+      <c r="D242" t="n">
         <v>9</v>
       </c>
-      <c r="E242" s="2" t="inlineStr">
+      <c r="E242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F242" s="2" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G242" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H242" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K242" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L242" s="2" t="inlineStr">
+      <c r="G242" t="b">
+        <v>1</v>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K242" t="b">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14958,260 +14958,260 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
+      <c r="A280" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D280" t="n">
+      <c r="D280" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
+      <c r="A281" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="B281" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+      <c r="C281" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D281" t="n">
+      <c r="D281" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
+      <c r="E281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
+      <c r="A282" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D282" t="n">
+      <c r="D282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
+      <c r="E282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
+      <c r="A283" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
+      <c r="A284" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="B284" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+      <c r="C284" s="2" t="inlineStr">
         <is>
           <t>assistance</t>
         </is>
       </c>
-      <c r="D284" t="n">
+      <c r="D284" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="E284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="F284" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I284" t="b">
-        <v>1</v>
-      </c>
-      <c r="J284" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K284" t="b">
-        <v>1</v>
-      </c>
-      <c r="L284" t="inlineStr">
+      <c r="G284" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J284" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K284" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L284" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="F289" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G289" s="2" t="b">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L289" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="F298" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G298" s="2" t="b">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="L298" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
